--- a/flows/GLD_fund_flow_data.xlsx
+++ b/flows/GLD_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4853"/>
+  <dimension ref="A1:B4871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48965,6 +48965,186 @@
         <v>-111.0282</v>
       </c>
     </row>
+    <row r="4854">
+      <c r="A4854" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4854" t="n">
+        <v>-413.4438</v>
+      </c>
+    </row>
+    <row r="4855">
+      <c r="A4855" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4855" t="n">
+        <v>-131.397</v>
+      </c>
+    </row>
+    <row r="4856">
+      <c r="A4856" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4857">
+      <c r="A4857" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4858">
+      <c r="A4858" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4858" t="n">
+        <v>-56.3223</v>
+      </c>
+    </row>
+    <row r="4859">
+      <c r="A4859" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4859" t="n">
+        <v>-94.233</v>
+      </c>
+    </row>
+    <row r="4860">
+      <c r="A4860" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4860" t="n">
+        <v>-169.4007</v>
+      </c>
+    </row>
+    <row r="4861">
+      <c r="A4861" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4861" t="n">
+        <v>56.8998</v>
+      </c>
+    </row>
+    <row r="4862">
+      <c r="A4862" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4862" t="n">
+        <v>-151.8616</v>
+      </c>
+    </row>
+    <row r="4863">
+      <c r="A4863" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4864">
+      <c r="A4864" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4864" t="n">
+        <v>-276.717</v>
+      </c>
+    </row>
+    <row r="4865">
+      <c r="A4865" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4865" t="n">
+        <v>-59.5308</v>
+      </c>
+    </row>
+    <row r="4866">
+      <c r="A4866" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4866" t="n">
+        <v>-99.708</v>
+      </c>
+    </row>
+    <row r="4867">
+      <c r="A4867" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4868">
+      <c r="A4868" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4869">
+      <c r="A4869" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4869" t="n">
+        <v>120.0762</v>
+      </c>
+    </row>
+    <row r="4870">
+      <c r="A4870" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4871">
+      <c r="A4871" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4871" t="n">
+        <v>1040.4211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
